--- a/Bhutani.xlsx
+++ b/Bhutani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotempaz/Documents/GitHub/SigiTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8A65E-1CD7-6D4D-A93E-C5D2BE5910A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99C35C-FD26-624D-9A78-D383D4E4E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15500" xr2:uid="{01EE2CB9-EFF0-C040-B2A7-6979EF831F79}"/>
   </bookViews>
@@ -37,29 +37,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>low risk limit</t>
+    <t>AgeHours</t>
   </si>
   <si>
-    <t>Intermediate risk limit</t>
+    <t>LowRiskLimit</t>
   </si>
   <si>
-    <t>High risk limit</t>
+    <t>IntermediateRiskLimit</t>
   </si>
   <si>
-    <t>Age in hours</t>
+    <t>HighRiskLimit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,23 +409,23 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">

--- a/Bhutani.xlsx
+++ b/Bhutani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotempaz/Documents/GitHub/SigiTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99C35C-FD26-624D-9A78-D383D4E4E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4AD86-9B18-5147-AEE1-27E3BCC7DDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15500" xr2:uid="{01EE2CB9-EFF0-C040-B2A7-6979EF831F79}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
